--- a/School Management File.xlsx
+++ b/School Management File.xlsx
@@ -1192,7 +1192,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
@@ -1623,6 +1623,70 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mashiat Hossain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>01598742368</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>New York, USA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>8/1/16</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ChE</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>35000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>25000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
